--- a/meu_projeto/output/resultados_experimentais.xlsx
+++ b/meu_projeto/output/resultados_experimentais.xlsx
@@ -7,8 +7,10 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimativas_BLUE_BLUP" sheetId="1" r:id="rId1"/>
-    <sheet name="Resumo_Final" sheetId="2" r:id="rId2"/>
+    <sheet name="Analise_Descritiva" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparacao_Modelos" sheetId="2" r:id="rId2"/>
+    <sheet name="Estimativas_BLUE_BLUP" sheetId="3" r:id="rId3"/>
+    <sheet name="Herdabilidade" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -352,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -361,330 +363,87 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>gen</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>BLUE</t>
+          <t>cv</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>BLUP</t>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sd.amo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ci.t</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>n.valid</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>val</t>
         </is>
       </c>
       <c r="B2">
-        <v>51401.5539976853</v>
+        <v>36.7224</v>
       </c>
       <c r="C2">
-        <v>42724.10861170154</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>20831.83584322427</v>
-      </c>
-      <c r="C3">
-        <v>27269.81625033347</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>24114.4520010253</v>
-      </c>
-      <c r="C4">
-        <v>28772.65084780521</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>G04</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>31127.86399468413</v>
-      </c>
-      <c r="C5">
-        <v>32216.92472153421</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>G05</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>49862.29502113721</v>
-      </c>
-      <c r="C6">
-        <v>42262.76732124948</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>G06</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>48195.39902603131</v>
-      </c>
-      <c r="C7">
-        <v>41196.33059085052</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>G07</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>40996.49092079704</v>
-      </c>
-      <c r="C8">
-        <v>37343.95766077066</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>G08</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>44694.03598295247</v>
-      </c>
-      <c r="C9">
-        <v>39718.19730354406</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>G09</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>36980.25817511476</v>
-      </c>
-      <c r="C10">
-        <v>35366.21876298595</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>G10</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>43339.91163599859</v>
-      </c>
-      <c r="C11">
-        <v>39174.54696420601</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>G11</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>41902.95359065419</v>
-      </c>
-      <c r="C12">
-        <v>38106.55532569488</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>G12</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>31312.70104288231</v>
-      </c>
-      <c r="C13">
-        <v>32857.0966694836</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>G13</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>18228.23846285845</v>
-      </c>
-      <c r="C14">
-        <v>26006.0077319847</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>G14</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>45917.58826401556</v>
-      </c>
-      <c r="C15">
-        <v>39948.88485064326</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>G15</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>49268.35618753515</v>
-      </c>
-      <c r="C16">
-        <v>41935.23468067336</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>G16</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>47680.92645383204</v>
-      </c>
-      <c r="C17">
-        <v>40925.84535504637</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>G17</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>46422.27683338303</v>
-      </c>
-      <c r="C18">
-        <v>40454.5402020833</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>G18</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>44722.40404518506</v>
-      </c>
-      <c r="C19">
-        <v>39613.27265641548</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>G19</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>49341.66145620843</v>
-      </c>
-      <c r="C20">
-        <v>41856.27113795799</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>G20</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>38819.45013142029</v>
-      </c>
-      <c r="C21">
-        <v>36668.26292263348</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>G21</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>20831.78970508904</v>
-      </c>
-      <c r="C22">
-        <v>27223.32122118213</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>G22</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>45867.85590479807</v>
-      </c>
-      <c r="C23">
-        <v>40416.66703298823</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>G23</t>
-        </is>
-      </c>
-      <c r="B24">
-        <v>40219.49749907546</v>
-      </c>
-      <c r="C24">
-        <v>37356.43302589647</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>G24</t>
-        </is>
-      </c>
-      <c r="B25">
-        <v>42452.20382441271</v>
-      </c>
-      <c r="C25">
-        <v>38406.0881523367</v>
+        <v>58757</v>
+      </c>
+      <c r="D2">
+        <v>39772.1667</v>
+      </c>
+      <c r="E2">
+        <v>43138</v>
+      </c>
+      <c r="F2">
+        <v>3342</v>
+      </c>
+      <c r="G2">
+        <v>14605.2905</v>
+      </c>
+      <c r="H2">
+        <v>1721.25</v>
+      </c>
+      <c r="I2">
+        <v>3432.075</v>
+      </c>
+      <c r="J2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -703,21 +462,719 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Herdabilidade</t>
+          <t>Modelo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cor_BLUE_BLUP</t>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logLik</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Efeito Fixo (BLUE)</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>1082.702283684526</v>
+      </c>
+      <c r="C2">
+        <v>-513.3511418422631</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Efeito Aleatório (BLUP)</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>1530.942154125724</v>
+      </c>
+      <c r="C3">
+        <v>-759.4710770628622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>gen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IC_inferior_BLUE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IC_superior_BLUE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BLUP</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>IC_inferior_BLUP</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>IC_superior_BLUP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>51401.5539976853</v>
+      </c>
+      <c r="C2">
+        <v>36810.44627215533</v>
+      </c>
+      <c r="D2">
+        <v>65992.66172321526</v>
+      </c>
+      <c r="E2">
+        <v>42724.10861170154</v>
+      </c>
+      <c r="F2">
+        <v>32908.85933055155</v>
+      </c>
+      <c r="G2">
+        <v>52539.35789285152</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>20831.83584322427</v>
+      </c>
+      <c r="C3">
+        <v>6240.728117694358</v>
+      </c>
+      <c r="D3">
+        <v>35422.94356875419</v>
+      </c>
+      <c r="E3">
+        <v>27269.81625033347</v>
+      </c>
+      <c r="F3">
+        <v>17454.56696918349</v>
+      </c>
+      <c r="G3">
+        <v>37085.06553148344</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>24114.4520010253</v>
+      </c>
+      <c r="C4">
+        <v>9523.34427549539</v>
+      </c>
+      <c r="D4">
+        <v>38705.55972655522</v>
+      </c>
+      <c r="E4">
+        <v>28772.65084780521</v>
+      </c>
+      <c r="F4">
+        <v>18957.40156665523</v>
+      </c>
+      <c r="G4">
+        <v>38587.90012895518</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>31127.86399468413</v>
+      </c>
+      <c r="C5">
+        <v>16536.75626915421</v>
+      </c>
+      <c r="D5">
+        <v>45718.97172021405</v>
+      </c>
+      <c r="E5">
+        <v>32216.92472153421</v>
+      </c>
+      <c r="F5">
+        <v>22401.69583986439</v>
+      </c>
+      <c r="G5">
+        <v>42032.15360320403</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>49862.29502113721</v>
+      </c>
+      <c r="C6">
+        <v>35268.71608556522</v>
+      </c>
+      <c r="D6">
+        <v>64455.8739567092</v>
+      </c>
+      <c r="E6">
+        <v>42262.76732124948</v>
+      </c>
+      <c r="F6">
+        <v>32447.53843957966</v>
+      </c>
+      <c r="G6">
+        <v>52077.9962029193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>48195.39902603131</v>
+      </c>
+      <c r="C7">
+        <v>33601.82009045933</v>
+      </c>
+      <c r="D7">
+        <v>62788.9779616033</v>
+      </c>
+      <c r="E7">
+        <v>41196.33059085052</v>
+      </c>
+      <c r="F7">
+        <v>31381.1017091807</v>
+      </c>
+      <c r="G7">
+        <v>51011.55947252034</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>40996.49092079704</v>
+      </c>
+      <c r="C8">
+        <v>26405.38319526712</v>
+      </c>
+      <c r="D8">
+        <v>55587.59864632696</v>
+      </c>
+      <c r="E8">
+        <v>37343.95766077066</v>
+      </c>
+      <c r="F8">
+        <v>27528.72877910084</v>
+      </c>
+      <c r="G8">
+        <v>47159.18654244048</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>44694.03598295247</v>
+      </c>
+      <c r="C9">
+        <v>30102.92825742255</v>
+      </c>
+      <c r="D9">
+        <v>59285.14370848238</v>
+      </c>
+      <c r="E9">
+        <v>39718.19730354406</v>
+      </c>
+      <c r="F9">
+        <v>29902.96842187424</v>
+      </c>
+      <c r="G9">
+        <v>49533.42618521388</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>36980.25817511476</v>
+      </c>
+      <c r="C10">
+        <v>22386.67923954278</v>
+      </c>
+      <c r="D10">
+        <v>51573.83711068674</v>
+      </c>
+      <c r="E10">
+        <v>35366.21876298595</v>
+      </c>
+      <c r="F10">
+        <v>25550.96948183597</v>
+      </c>
+      <c r="G10">
+        <v>45181.46804413594</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>43339.91163599859</v>
+      </c>
+      <c r="C11">
+        <v>28748.80391046868</v>
+      </c>
+      <c r="D11">
+        <v>57931.01936152851</v>
+      </c>
+      <c r="E11">
+        <v>39174.54696420601</v>
+      </c>
+      <c r="F11">
+        <v>29359.31808253619</v>
+      </c>
+      <c r="G11">
+        <v>48989.77584587583</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>G11</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>41902.95359065419</v>
+      </c>
+      <c r="C12">
+        <v>27311.84586512427</v>
+      </c>
+      <c r="D12">
+        <v>56494.0613161841</v>
+      </c>
+      <c r="E12">
+        <v>38106.55532569488</v>
+      </c>
+      <c r="F12">
+        <v>28291.3060445449</v>
+      </c>
+      <c r="G12">
+        <v>47921.80460684486</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>G12</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>31312.70104288231</v>
+      </c>
+      <c r="C13">
+        <v>16721.59331735239</v>
+      </c>
+      <c r="D13">
+        <v>45903.80876841222</v>
+      </c>
+      <c r="E13">
+        <v>32857.0966694836</v>
+      </c>
+      <c r="F13">
+        <v>23041.86778781378</v>
+      </c>
+      <c r="G13">
+        <v>42672.32555115342</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>G13</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>18228.23846285845</v>
+      </c>
+      <c r="C14">
+        <v>3634.659527286465</v>
+      </c>
+      <c r="D14">
+        <v>32821.81739843043</v>
+      </c>
+      <c r="E14">
+        <v>26006.0077319847</v>
+      </c>
+      <c r="F14">
+        <v>16190.75845083472</v>
+      </c>
+      <c r="G14">
+        <v>35821.25701313467</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>G14</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>45917.58826401556</v>
+      </c>
+      <c r="C15">
+        <v>31324.00932844358</v>
+      </c>
+      <c r="D15">
+        <v>60511.16719958755</v>
+      </c>
+      <c r="E15">
+        <v>39948.88485064326</v>
+      </c>
+      <c r="F15">
+        <v>30133.63556949328</v>
+      </c>
+      <c r="G15">
+        <v>49764.13413179324</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>G15</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>49268.35618753515</v>
+      </c>
+      <c r="C16">
+        <v>34674.77725196317</v>
+      </c>
+      <c r="D16">
+        <v>63861.93512310713</v>
+      </c>
+      <c r="E16">
+        <v>41935.23468067336</v>
+      </c>
+      <c r="F16">
+        <v>32120.00579900354</v>
+      </c>
+      <c r="G16">
+        <v>51750.46356234318</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>G16</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>47680.92645383204</v>
+      </c>
+      <c r="C17">
+        <v>33089.81872830213</v>
+      </c>
+      <c r="D17">
+        <v>62272.03417936196</v>
+      </c>
+      <c r="E17">
+        <v>40925.84535504637</v>
+      </c>
+      <c r="F17">
+        <v>31110.61647337655</v>
+      </c>
+      <c r="G17">
+        <v>50741.07423671619</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>G17</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>46422.27683338303</v>
+      </c>
+      <c r="C18">
+        <v>31828.69789781105</v>
+      </c>
+      <c r="D18">
+        <v>61015.85576895501</v>
+      </c>
+      <c r="E18">
+        <v>40454.5402020833</v>
+      </c>
+      <c r="F18">
+        <v>30639.29092093332</v>
+      </c>
+      <c r="G18">
+        <v>50269.78948323328</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>G18</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>44722.40404518506</v>
+      </c>
+      <c r="C19">
+        <v>30131.29631965514</v>
+      </c>
+      <c r="D19">
+        <v>59313.51177071498</v>
+      </c>
+      <c r="E19">
+        <v>39613.27265641548</v>
+      </c>
+      <c r="F19">
+        <v>29798.04377474566</v>
+      </c>
+      <c r="G19">
+        <v>49428.5015380853</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>G19</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>49341.66145620843</v>
+      </c>
+      <c r="C20">
+        <v>34748.08252063645</v>
+      </c>
+      <c r="D20">
+        <v>63935.2403917804</v>
+      </c>
+      <c r="E20">
+        <v>41856.27113795799</v>
+      </c>
+      <c r="F20">
+        <v>32041.04225628816</v>
+      </c>
+      <c r="G20">
+        <v>51671.50001962781</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>38819.45013142029</v>
+      </c>
+      <c r="C21">
+        <v>24225.87119584831</v>
+      </c>
+      <c r="D21">
+        <v>53413.02906699228</v>
+      </c>
+      <c r="E21">
+        <v>36668.26292263348</v>
+      </c>
+      <c r="F21">
+        <v>26853.0136414835</v>
+      </c>
+      <c r="G21">
+        <v>46483.51220378347</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>G21</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>20831.78970508904</v>
+      </c>
+      <c r="C22">
+        <v>6238.210769517051</v>
+      </c>
+      <c r="D22">
+        <v>35425.36864066103</v>
+      </c>
+      <c r="E22">
+        <v>27223.32122118213</v>
+      </c>
+      <c r="F22">
+        <v>17408.07194003215</v>
+      </c>
+      <c r="G22">
+        <v>37038.57050233211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>G22</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>45867.85590479807</v>
+      </c>
+      <c r="C23">
+        <v>31274.27696922609</v>
+      </c>
+      <c r="D23">
+        <v>60461.43484037006</v>
+      </c>
+      <c r="E23">
+        <v>40416.66703298823</v>
+      </c>
+      <c r="F23">
+        <v>30601.43815131841</v>
+      </c>
+      <c r="G23">
+        <v>50231.89591465805</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>G23</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>40219.49749907546</v>
+      </c>
+      <c r="C24">
+        <v>25625.91856350348</v>
+      </c>
+      <c r="D24">
+        <v>54813.07643464745</v>
+      </c>
+      <c r="E24">
+        <v>37356.43302589647</v>
+      </c>
+      <c r="F24">
+        <v>27541.18374474649</v>
+      </c>
+      <c r="G24">
+        <v>47171.68230704645</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>G24</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>42452.20382441271</v>
+      </c>
+      <c r="C25">
+        <v>27861.09609888279</v>
+      </c>
+      <c r="D25">
+        <v>57043.31154994263</v>
+      </c>
+      <c r="E25">
+        <v>38406.0881523367</v>
+      </c>
+      <c r="F25">
+        <v>28590.83887118672</v>
+      </c>
+      <c r="G25">
+        <v>48221.33743348668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.534</v>
-      </c>
-      <c r="B2">
-        <v>0.9993896171179579</v>
+        <v>0.5344091431562284</v>
       </c>
     </row>
   </sheetData>
